--- a/database/industries/palayesh/shetran/income/quarterly/rial_cumulative.xlsx
+++ b/database/industries/palayesh/shetran/income/quarterly/rial_cumulative.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\palayesh\shetran\income\quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\palayesh\shetran\income\quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78C9BA6F-392A-49C5-BC6D-9BC733AAD5B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF3FA867-5F45-471F-B336-52869957BAF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -37,9 +37,6 @@
     <t>دوره مالی</t>
   </si>
   <si>
-    <t>6 ماهه منتهی به 1399/06</t>
-  </si>
-  <si>
     <t>9 ماهه منتهی به 1399/09</t>
   </si>
   <si>
@@ -67,12 +64,12 @@
     <t>9 ماهه منتهی به 1401/09</t>
   </si>
   <si>
+    <t>12 ماهه منتهی به 1401/12</t>
+  </si>
+  <si>
     <t>تاریخ انتشار</t>
   </si>
   <si>
-    <t>1400-08-30 (4)</t>
-  </si>
-  <si>
     <t>1400-10-29 (2)</t>
   </si>
   <si>
@@ -88,7 +85,7 @@
     <t>1401-10-28 (2)</t>
   </si>
   <si>
-    <t>1401-10-28 (6)</t>
+    <t>1402-02-23 (7)</t>
   </si>
   <si>
     <t>1401-04-28</t>
@@ -98,6 +95,9 @@
   </si>
   <si>
     <t>1401-10-28</t>
+  </si>
+  <si>
+    <t>1402-02-23</t>
   </si>
   <si>
     <t>فروش</t>
@@ -619,18 +619,19 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="54" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
-    <col min="4" max="5" width="28" customWidth="1"/>
-    <col min="6" max="6" width="29" customWidth="1"/>
-    <col min="7" max="9" width="28" customWidth="1"/>
-    <col min="10" max="10" width="29" customWidth="1"/>
-    <col min="11" max="13" width="28" customWidth="1"/>
+    <col min="4" max="4" width="28" customWidth="1"/>
+    <col min="5" max="5" width="29" customWidth="1"/>
+    <col min="6" max="8" width="28" customWidth="1"/>
+    <col min="9" max="9" width="29" customWidth="1"/>
+    <col min="10" max="12" width="28" customWidth="1"/>
+    <col min="13" max="13" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -644,7 +645,7 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
-    <row r="2" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -660,7 +661,7 @@
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -676,7 +677,7 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -690,7 +691,7 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="2:13" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -706,7 +707,7 @@
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
     </row>
-    <row r="6" spans="2:13" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -722,7 +723,7 @@
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -736,7 +737,7 @@
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
     </row>
-    <row r="8" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -772,7 +773,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B9" s="8" t="s">
         <v>15</v>
       </c>
@@ -808,7 +809,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -822,151 +823,151 @@
       <c r="L10" s="11"/>
       <c r="M10" s="11"/>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B11" s="12" t="s">
         <v>26</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13">
-        <v>206103568</v>
+        <v>404235739</v>
       </c>
       <c r="E11" s="13">
-        <v>404235739</v>
+        <v>723024323</v>
       </c>
       <c r="F11" s="13">
-        <v>723024323</v>
+        <v>246141824</v>
       </c>
       <c r="G11" s="13">
-        <v>246141824</v>
+        <v>508232511</v>
       </c>
       <c r="H11" s="13">
-        <v>508232511</v>
+        <v>933421497</v>
       </c>
       <c r="I11" s="13">
-        <v>933421497</v>
+        <v>1412406909</v>
       </c>
       <c r="J11" s="13">
-        <v>1412406909</v>
+        <v>580668052</v>
       </c>
       <c r="K11" s="13">
-        <v>580668052</v>
+        <v>1167027538</v>
       </c>
       <c r="L11" s="13">
-        <v>1167027538</v>
+        <v>1727387859</v>
       </c>
       <c r="M11" s="13">
-        <v>1727387859</v>
-      </c>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+        <v>2201115870</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B12" s="10" t="s">
         <v>27</v>
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="11">
-        <v>-200686763</v>
+        <v>-378291781</v>
       </c>
       <c r="E12" s="11">
-        <v>-378291781</v>
+        <v>-636726560</v>
       </c>
       <c r="F12" s="11">
-        <v>-636726560</v>
+        <v>-221605924</v>
       </c>
       <c r="G12" s="11">
-        <v>-221605924</v>
+        <v>-454434125</v>
       </c>
       <c r="H12" s="11">
-        <v>-454434125</v>
+        <v>-837225469</v>
       </c>
       <c r="I12" s="11">
-        <v>-837225469</v>
+        <v>-1276236327</v>
       </c>
       <c r="J12" s="11">
-        <v>-1276236327</v>
+        <v>-464864867</v>
       </c>
       <c r="K12" s="11">
-        <v>-464864867</v>
+        <v>-997003815</v>
       </c>
       <c r="L12" s="11">
-        <v>-997003815</v>
+        <v>-1509265254</v>
       </c>
       <c r="M12" s="11">
-        <v>-1509265254</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-1939270600</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B13" s="14" t="s">
         <v>28</v>
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="15">
-        <v>5416805</v>
+        <v>25943958</v>
       </c>
       <c r="E13" s="15">
-        <v>25943958</v>
+        <v>86297763</v>
       </c>
       <c r="F13" s="15">
-        <v>86297763</v>
+        <v>24535900</v>
       </c>
       <c r="G13" s="15">
-        <v>24535900</v>
+        <v>53798386</v>
       </c>
       <c r="H13" s="15">
-        <v>53798386</v>
+        <v>96196028</v>
       </c>
       <c r="I13" s="15">
-        <v>96196028</v>
+        <v>136170582</v>
       </c>
       <c r="J13" s="15">
-        <v>136170582</v>
+        <v>115803185</v>
       </c>
       <c r="K13" s="15">
-        <v>115803185</v>
+        <v>170023723</v>
       </c>
       <c r="L13" s="15">
-        <v>170023723</v>
+        <v>218122605</v>
       </c>
       <c r="M13" s="15">
-        <v>218122605</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+        <v>261845270</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B14" s="10" t="s">
         <v>29</v>
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="11">
-        <v>-1218044</v>
+        <v>-1591345</v>
       </c>
       <c r="E14" s="11">
-        <v>-1591345</v>
+        <v>-9900334</v>
       </c>
       <c r="F14" s="11">
-        <v>-9900334</v>
+        <v>-1041064</v>
       </c>
       <c r="G14" s="11">
-        <v>-1041064</v>
+        <v>-2135637</v>
       </c>
       <c r="H14" s="11">
-        <v>-2135637</v>
+        <v>-4277966</v>
       </c>
       <c r="I14" s="11">
-        <v>-4277966</v>
+        <v>-10267618</v>
       </c>
       <c r="J14" s="11">
-        <v>-10267618</v>
+        <v>-2031322</v>
       </c>
       <c r="K14" s="11">
-        <v>-2031322</v>
+        <v>-5167898</v>
       </c>
       <c r="L14" s="11">
-        <v>-5167898</v>
+        <v>-5774288</v>
       </c>
       <c r="M14" s="11">
-        <v>-5774288</v>
-      </c>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-14013725</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
         <v>30</v>
       </c>
@@ -1002,79 +1003,79 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B16" s="10" t="s">
         <v>31</v>
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="11">
-        <v>17337401</v>
+        <v>17801879</v>
       </c>
       <c r="E16" s="11">
-        <v>17801879</v>
+        <v>28358034</v>
       </c>
       <c r="F16" s="11">
-        <v>28358034</v>
+        <v>510922</v>
       </c>
       <c r="G16" s="11">
-        <v>510922</v>
+        <v>1416834</v>
       </c>
       <c r="H16" s="11">
-        <v>1416834</v>
+        <v>10508948</v>
       </c>
       <c r="I16" s="11">
-        <v>10508948</v>
+        <v>14791252</v>
       </c>
       <c r="J16" s="11">
-        <v>14791252</v>
+        <v>1766253</v>
       </c>
       <c r="K16" s="11">
-        <v>1766253</v>
+        <v>2905126</v>
       </c>
       <c r="L16" s="11">
-        <v>2905126</v>
+        <v>4305436</v>
       </c>
       <c r="M16" s="11">
-        <v>4305436</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+        <v>6018270</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B17" s="14" t="s">
         <v>32</v>
       </c>
       <c r="C17" s="15"/>
       <c r="D17" s="15">
-        <v>21536162</v>
+        <v>42154492</v>
       </c>
       <c r="E17" s="15">
-        <v>42154492</v>
+        <v>104755463</v>
       </c>
       <c r="F17" s="15">
-        <v>104755463</v>
+        <v>24005758</v>
       </c>
       <c r="G17" s="15">
-        <v>24005758</v>
+        <v>53079583</v>
       </c>
       <c r="H17" s="15">
-        <v>53079583</v>
+        <v>102427010</v>
       </c>
       <c r="I17" s="15">
-        <v>102427010</v>
+        <v>140694216</v>
       </c>
       <c r="J17" s="15">
-        <v>140694216</v>
+        <v>115538116</v>
       </c>
       <c r="K17" s="15">
-        <v>115538116</v>
+        <v>167760951</v>
       </c>
       <c r="L17" s="15">
-        <v>167760951</v>
+        <v>216653753</v>
       </c>
       <c r="M17" s="15">
-        <v>216653753</v>
-      </c>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+        <v>253849815</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B18" s="10" t="s">
         <v>33</v>
       </c>
@@ -1083,7 +1084,7 @@
         <v>-35004</v>
       </c>
       <c r="E18" s="11">
-        <v>-35004</v>
+        <v>0</v>
       </c>
       <c r="F18" s="11">
         <v>0</v>
@@ -1101,160 +1102,160 @@
         <v>0</v>
       </c>
       <c r="K18" s="11">
-        <v>0</v>
+        <v>-499315</v>
       </c>
       <c r="L18" s="11">
-        <v>-499315</v>
+        <v>-1836520</v>
       </c>
       <c r="M18" s="11">
-        <v>-1836520</v>
-      </c>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-3844544</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B19" s="12" t="s">
         <v>34</v>
       </c>
       <c r="C19" s="13"/>
       <c r="D19" s="13">
-        <v>7676977</v>
+        <v>12190463</v>
       </c>
       <c r="E19" s="13">
-        <v>12190463</v>
+        <v>17931000</v>
       </c>
       <c r="F19" s="13">
-        <v>17931000</v>
+        <v>6429396</v>
       </c>
       <c r="G19" s="13">
-        <v>6429396</v>
+        <v>16159186</v>
       </c>
       <c r="H19" s="13">
-        <v>16159186</v>
+        <v>24744610</v>
       </c>
       <c r="I19" s="13">
-        <v>24744610</v>
+        <v>35004720</v>
       </c>
       <c r="J19" s="13">
-        <v>35004720</v>
+        <v>11241737</v>
       </c>
       <c r="K19" s="13">
-        <v>11241737</v>
+        <v>32775961</v>
       </c>
       <c r="L19" s="13">
-        <v>32775961</v>
+        <v>50585877</v>
       </c>
       <c r="M19" s="13">
-        <v>50585877</v>
-      </c>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+        <v>72535736</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B20" s="16" t="s">
         <v>35</v>
       </c>
       <c r="C20" s="17"/>
       <c r="D20" s="17">
-        <v>29178135</v>
+        <v>54309951</v>
       </c>
       <c r="E20" s="17">
-        <v>54309951</v>
+        <v>122686463</v>
       </c>
       <c r="F20" s="17">
-        <v>122686463</v>
+        <v>30435154</v>
       </c>
       <c r="G20" s="17">
-        <v>30435154</v>
+        <v>69238769</v>
       </c>
       <c r="H20" s="17">
-        <v>69238769</v>
+        <v>127171620</v>
       </c>
       <c r="I20" s="17">
-        <v>127171620</v>
+        <v>175698936</v>
       </c>
       <c r="J20" s="17">
-        <v>175698936</v>
+        <v>126779853</v>
       </c>
       <c r="K20" s="17">
-        <v>126779853</v>
+        <v>200037597</v>
       </c>
       <c r="L20" s="17">
-        <v>200037597</v>
+        <v>265403110</v>
       </c>
       <c r="M20" s="17">
-        <v>265403110</v>
-      </c>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+        <v>322541007</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
         <v>36</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13">
-        <v>-4381915</v>
+        <v>-8523062</v>
       </c>
       <c r="E21" s="13">
-        <v>-8523062</v>
+        <v>-11892734</v>
       </c>
       <c r="F21" s="13">
-        <v>-11892734</v>
+        <v>-4726212</v>
       </c>
       <c r="G21" s="13">
-        <v>-4726212</v>
+        <v>-12498400</v>
       </c>
       <c r="H21" s="13">
-        <v>-12498400</v>
+        <v>-22333919</v>
       </c>
       <c r="I21" s="13">
-        <v>-22333919</v>
+        <v>-21799093</v>
       </c>
       <c r="J21" s="13">
-        <v>-21799093</v>
+        <v>-25008565</v>
       </c>
       <c r="K21" s="13">
-        <v>-25008565</v>
+        <v>-36869355</v>
       </c>
       <c r="L21" s="13">
-        <v>-36869355</v>
+        <v>-36362966</v>
       </c>
       <c r="M21" s="13">
-        <v>-36362966</v>
-      </c>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-22509215</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B22" s="16" t="s">
         <v>37</v>
       </c>
       <c r="C22" s="17"/>
       <c r="D22" s="17">
-        <v>24796220</v>
+        <v>45786889</v>
       </c>
       <c r="E22" s="17">
-        <v>45786889</v>
+        <v>110793729</v>
       </c>
       <c r="F22" s="17">
-        <v>110793729</v>
+        <v>25708942</v>
       </c>
       <c r="G22" s="17">
-        <v>25708942</v>
+        <v>56740369</v>
       </c>
       <c r="H22" s="17">
-        <v>56740369</v>
+        <v>104837701</v>
       </c>
       <c r="I22" s="17">
-        <v>104837701</v>
+        <v>153899843</v>
       </c>
       <c r="J22" s="17">
-        <v>153899843</v>
+        <v>101771288</v>
       </c>
       <c r="K22" s="17">
-        <v>101771288</v>
+        <v>163168242</v>
       </c>
       <c r="L22" s="17">
-        <v>163168242</v>
+        <v>229040144</v>
       </c>
       <c r="M22" s="17">
-        <v>229040144</v>
-      </c>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+        <v>300031792</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
         <v>38</v>
       </c>
@@ -1290,79 +1291,79 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B24" s="16" t="s">
         <v>39</v>
       </c>
       <c r="C24" s="17"/>
       <c r="D24" s="17">
-        <v>24796220</v>
+        <v>45786889</v>
       </c>
       <c r="E24" s="17">
-        <v>45786889</v>
+        <v>110793729</v>
       </c>
       <c r="F24" s="17">
-        <v>110793729</v>
+        <v>25708942</v>
       </c>
       <c r="G24" s="17">
-        <v>25708942</v>
+        <v>56740369</v>
       </c>
       <c r="H24" s="17">
-        <v>56740369</v>
+        <v>104837701</v>
       </c>
       <c r="I24" s="17">
-        <v>104837701</v>
+        <v>153899843</v>
       </c>
       <c r="J24" s="17">
-        <v>153899843</v>
+        <v>101771288</v>
       </c>
       <c r="K24" s="17">
-        <v>101771288</v>
+        <v>163168242</v>
       </c>
       <c r="L24" s="17">
-        <v>163168242</v>
+        <v>229040144</v>
       </c>
       <c r="M24" s="17">
-        <v>229040144</v>
-      </c>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+        <v>300031792</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B25" s="12" t="s">
         <v>40</v>
       </c>
       <c r="C25" s="13"/>
       <c r="D25" s="13">
-        <v>146</v>
+        <v>269</v>
       </c>
       <c r="E25" s="13">
-        <v>269</v>
+        <v>652</v>
       </c>
       <c r="F25" s="13">
-        <v>652</v>
+        <v>151</v>
       </c>
       <c r="G25" s="13">
-        <v>151</v>
+        <v>334</v>
       </c>
       <c r="H25" s="13">
-        <v>334</v>
+        <v>381</v>
       </c>
       <c r="I25" s="13">
-        <v>381</v>
+        <v>560</v>
       </c>
       <c r="J25" s="13">
-        <v>560</v>
+        <v>599</v>
       </c>
       <c r="K25" s="13">
-        <v>599</v>
+        <v>960</v>
       </c>
       <c r="L25" s="13">
-        <v>960</v>
+        <v>833</v>
       </c>
       <c r="M25" s="13">
-        <v>833</v>
-      </c>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B26" s="10" t="s">
         <v>41</v>
       </c>
@@ -1380,61 +1381,61 @@
         <v>170000000</v>
       </c>
       <c r="H26" s="11">
-        <v>170000000</v>
+        <v>275000000</v>
       </c>
       <c r="I26" s="11">
         <v>275000000</v>
       </c>
       <c r="J26" s="11">
-        <v>275000000</v>
+        <v>170000000</v>
       </c>
       <c r="K26" s="11">
         <v>170000000</v>
       </c>
       <c r="L26" s="11">
-        <v>170000000</v>
+        <v>275000000</v>
       </c>
       <c r="M26" s="11">
         <v>275000000</v>
       </c>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B27" s="12" t="s">
         <v>42</v>
       </c>
       <c r="C27" s="13"/>
       <c r="D27" s="13">
-        <v>90</v>
+        <v>167</v>
       </c>
       <c r="E27" s="13">
-        <v>167</v>
+        <v>403</v>
       </c>
       <c r="F27" s="13">
-        <v>403</v>
+        <v>93</v>
       </c>
       <c r="G27" s="13">
-        <v>93</v>
+        <v>206</v>
       </c>
       <c r="H27" s="13">
-        <v>206</v>
+        <v>381</v>
       </c>
       <c r="I27" s="13">
-        <v>381</v>
+        <v>560</v>
       </c>
       <c r="J27" s="13">
-        <v>560</v>
+        <v>370</v>
       </c>
       <c r="K27" s="13">
-        <v>370</v>
+        <v>593</v>
       </c>
       <c r="L27" s="13">
-        <v>593</v>
+        <v>833</v>
       </c>
       <c r="M27" s="13">
-        <v>833</v>
-      </c>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
